--- a/usrdata/klassiccole/cole_watched_movies.xlsx
+++ b/usrdata/klassiccole/cole_watched_movies.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coled\IdeaProjects\Movie_Data_Scraper\usrdata\klassiccole\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14B54EB-D121-4E40-B0CD-5032B81FB3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="98" windowWidth="17190" windowHeight="7688" tabRatio="392"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4890" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="1389">
   <si>
     <t>primaryTitle</t>
   </si>
@@ -4138,13 +4142,58 @@
   </si>
   <si>
     <t>tt0116683</t>
+  </si>
+  <si>
+    <t>Apocalypse Now</t>
+  </si>
+  <si>
+    <t>Drama,Mystery,War</t>
+  </si>
+  <si>
+    <t>yue</t>
+  </si>
+  <si>
+    <t>tt0078788</t>
+  </si>
+  <si>
+    <t>The Family Man</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>tt0218967</t>
+  </si>
+  <si>
+    <t>There Will Be Blood</t>
+  </si>
+  <si>
+    <t>tt0469494</t>
+  </si>
+  <si>
+    <t>Top Gun</t>
+  </si>
+  <si>
+    <t>tt0092099</t>
+  </si>
+  <si>
+    <t>Dracula Untold</t>
+  </si>
+  <si>
+    <t>Action,Drama,Fantasy</t>
+  </si>
+  <si>
+    <t>tt0829150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4208,14 +4257,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4253,7 +4305,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4325,7 +4377,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4498,23 +4550,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L543"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" workbookViewId="0">
-      <selection activeCell="A544" sqref="A544"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="A549" sqref="A549"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.265625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.9296875" customWidth="1"/>
+    <col min="2" max="2" width="17.73046875" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" customWidth="1"/>
     <col min="4" max="4" width="31.59765625" customWidth="1"/>
     <col min="7" max="7" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4552,7 +4604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>651</v>
       </c>
@@ -4590,7 +4642,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>558</v>
       </c>
@@ -4628,7 +4680,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>689</v>
       </c>
@@ -4666,7 +4718,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>245</v>
       </c>
@@ -4704,7 +4756,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>874</v>
       </c>
@@ -4742,7 +4794,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>736</v>
       </c>
@@ -4780,7 +4832,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>886</v>
       </c>
@@ -4818,7 +4870,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>719</v>
       </c>
@@ -4856,7 +4908,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>709</v>
       </c>
@@ -4894,7 +4946,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>458</v>
       </c>
@@ -4932,7 +4984,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -4970,7 +5022,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>765</v>
       </c>
@@ -5008,7 +5060,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>662</v>
       </c>
@@ -5046,7 +5098,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>383</v>
       </c>
@@ -5084,7 +5136,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -5122,7 +5174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>623</v>
       </c>
@@ -5160,7 +5212,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>278</v>
       </c>
@@ -5198,7 +5250,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>576</v>
       </c>
@@ -5236,7 +5288,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>643</v>
       </c>
@@ -5274,7 +5326,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>862</v>
       </c>
@@ -5312,7 +5364,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>532</v>
       </c>
@@ -5350,7 +5402,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>614</v>
       </c>
@@ -5388,7 +5440,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>440</v>
       </c>
@@ -5426,7 +5478,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>265</v>
       </c>
@@ -5464,7 +5516,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>828</v>
       </c>
@@ -5502,7 +5554,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>221</v>
       </c>
@@ -5540,7 +5592,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>589</v>
       </c>
@@ -5578,7 +5630,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>505</v>
       </c>
@@ -5616,7 +5668,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -5654,7 +5706,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>353</v>
       </c>
@@ -5692,7 +5744,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>596</v>
       </c>
@@ -5730,7 +5782,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>412</v>
       </c>
@@ -5768,7 +5820,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>370</v>
       </c>
@@ -5806,7 +5858,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>396</v>
       </c>
@@ -5844,7 +5896,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>518</v>
       </c>
@@ -5882,7 +5934,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>787</v>
       </c>
@@ -5920,7 +5972,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>703</v>
       </c>
@@ -5958,7 +6010,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>755</v>
       </c>
@@ -5996,7 +6048,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>738</v>
       </c>
@@ -6034,7 +6086,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>345</v>
       </c>
@@ -6072,7 +6124,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -6110,7 +6162,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>882</v>
       </c>
@@ -6148,7 +6200,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>682</v>
       </c>
@@ -6186,7 +6238,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>835</v>
       </c>
@@ -6224,7 +6276,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>609</v>
       </c>
@@ -6262,7 +6314,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>798</v>
       </c>
@@ -6300,7 +6352,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>845</v>
       </c>
@@ -6338,7 +6390,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>510</v>
       </c>
@@ -6376,7 +6428,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>374</v>
       </c>
@@ -6414,7 +6466,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>815</v>
       </c>
@@ -6452,7 +6504,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>313</v>
       </c>
@@ -6490,7 +6542,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>876</v>
       </c>
@@ -6528,7 +6580,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>763</v>
       </c>
@@ -6566,7 +6618,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>698</v>
       </c>
@@ -6604,7 +6656,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>847</v>
       </c>
@@ -6642,7 +6694,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>695</v>
       </c>
@@ -6680,7 +6732,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>488</v>
       </c>
@@ -6718,7 +6770,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>706</v>
       </c>
@@ -6756,7 +6808,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>406</v>
       </c>
@@ -6794,7 +6846,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>306</v>
       </c>
@@ -6832,7 +6884,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>343</v>
       </c>
@@ -6870,7 +6922,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>627</v>
       </c>
@@ -6908,7 +6960,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>293</v>
       </c>
@@ -6946,7 +6998,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>920</v>
       </c>
@@ -6984,7 +7036,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -7022,7 +7074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>260</v>
       </c>
@@ -7060,7 +7112,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>666</v>
       </c>
@@ -7098,7 +7150,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>297</v>
       </c>
@@ -7136,7 +7188,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -7174,7 +7226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>711</v>
       </c>
@@ -7212,7 +7264,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>271</v>
       </c>
@@ -7250,7 +7302,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>391</v>
       </c>
@@ -7288,7 +7340,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -7326,7 +7378,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>362</v>
       </c>
@@ -7364,7 +7416,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>773</v>
       </c>
@@ -7402,7 +7454,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>914</v>
       </c>
@@ -7440,7 +7492,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>916</v>
       </c>
@@ -7478,7 +7530,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>701</v>
       </c>
@@ -7516,7 +7568,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>571</v>
       </c>
@@ -7554,7 +7606,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>338</v>
       </c>
@@ -7592,7 +7644,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>631</v>
       </c>
@@ -7630,7 +7682,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>453</v>
       </c>
@@ -7668,7 +7720,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>408</v>
       </c>
@@ -7706,7 +7758,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -7744,7 +7796,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>32</v>
       </c>
@@ -7782,7 +7834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>621</v>
       </c>
@@ -7820,7 +7872,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>483</v>
       </c>
@@ -7858,7 +7910,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>761</v>
       </c>
@@ -7896,7 +7948,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>477</v>
       </c>
@@ -7934,7 +7986,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>908</v>
       </c>
@@ -7972,7 +8024,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>385</v>
       </c>
@@ -8010,7 +8062,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>138</v>
       </c>
@@ -8048,7 +8100,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>75</v>
       </c>
@@ -8086,7 +8138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>855</v>
       </c>
@@ -8124,7 +8176,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>616</v>
       </c>
@@ -8162,7 +8214,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -8200,7 +8252,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>267</v>
       </c>
@@ -8238,7 +8290,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>403</v>
       </c>
@@ -8276,7 +8328,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>785</v>
       </c>
@@ -8314,7 +8366,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>538</v>
       </c>
@@ -8352,7 +8404,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>330</v>
       </c>
@@ -8390,7 +8442,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>303</v>
       </c>
@@ -8428,7 +8480,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>333</v>
       </c>
@@ -8466,7 +8518,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>316</v>
       </c>
@@ -8504,7 +8556,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>301</v>
       </c>
@@ -8542,7 +8594,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>239</v>
       </c>
@@ -8580,7 +8632,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>287</v>
       </c>
@@ -8618,7 +8670,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>831</v>
       </c>
@@ -8656,7 +8708,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>310</v>
       </c>
@@ -8694,7 +8746,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>857</v>
       </c>
@@ -8732,7 +8784,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>884</v>
       </c>
@@ -8770,7 +8822,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>573</v>
       </c>
@@ -8808,7 +8860,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>520</v>
       </c>
@@ -8846,7 +8898,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>791</v>
       </c>
@@ -8884,7 +8936,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>564</v>
       </c>
@@ -8922,7 +8974,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>581</v>
       </c>
@@ -8960,7 +9012,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>849</v>
       </c>
@@ -8998,7 +9050,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>464</v>
       </c>
@@ -9036,7 +9088,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -9074,7 +9126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>431</v>
       </c>
@@ -9112,7 +9164,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>556</v>
       </c>
@@ -9150,7 +9202,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>360</v>
       </c>
@@ -9188,7 +9240,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>40</v>
       </c>
@@ -9226,7 +9278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>227</v>
       </c>
@@ -9264,7 +9316,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>512</v>
       </c>
@@ -9302,7 +9354,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>647</v>
       </c>
@@ -9340,7 +9392,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>527</v>
       </c>
@@ -9378,7 +9430,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>583</v>
       </c>
@@ -9416,7 +9468,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>625</v>
       </c>
@@ -9454,7 +9506,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>423</v>
       </c>
@@ -9492,7 +9544,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -9530,7 +9582,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>693</v>
       </c>
@@ -9568,7 +9620,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>843</v>
       </c>
@@ -9606,7 +9658,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>340</v>
       </c>
@@ -9644,7 +9696,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>460</v>
       </c>
@@ -9682,7 +9734,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>289</v>
       </c>
@@ -9720,7 +9772,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -9758,7 +9810,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>498</v>
       </c>
@@ -9796,7 +9848,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>724</v>
       </c>
@@ -9834,7 +9886,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>365</v>
       </c>
@@ -9872,7 +9924,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>658</v>
       </c>
@@ -9910,7 +9962,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>722</v>
       </c>
@@ -9948,7 +10000,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>660</v>
       </c>
@@ -9986,7 +10038,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>367</v>
       </c>
@@ -10024,7 +10076,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>115</v>
       </c>
@@ -10062,7 +10114,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>427</v>
       </c>
@@ -10100,7 +10152,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>450</v>
       </c>
@@ -10138,7 +10190,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>726</v>
       </c>
@@ -10176,7 +10228,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>789</v>
       </c>
@@ -10214,7 +10266,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -10252,7 +10304,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>812</v>
       </c>
@@ -10290,7 +10342,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>553</v>
       </c>
@@ -10328,7 +10380,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>560</v>
       </c>
@@ -10366,7 +10418,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>653</v>
       </c>
@@ -10404,7 +10456,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>837</v>
       </c>
@@ -10442,7 +10494,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>851</v>
       </c>
@@ -10480,7 +10532,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>523</v>
       </c>
@@ -10518,7 +10570,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>491</v>
       </c>
@@ -10556,7 +10608,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>715</v>
       </c>
@@ -10594,7 +10646,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>880</v>
       </c>
@@ -10632,7 +10684,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>664</v>
       </c>
@@ -10670,7 +10722,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>551</v>
       </c>
@@ -10708,7 +10760,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>347</v>
       </c>
@@ -10746,7 +10798,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>475</v>
       </c>
@@ -10784,7 +10836,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>601</v>
       </c>
@@ -10822,7 +10874,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>455</v>
       </c>
@@ -10860,7 +10912,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>415</v>
       </c>
@@ -10898,7 +10950,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>579</v>
       </c>
@@ -10936,7 +10988,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>687</v>
       </c>
@@ -10974,7 +11026,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>833</v>
       </c>
@@ -11012,7 +11064,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>633</v>
       </c>
@@ -11050,7 +11102,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>645</v>
       </c>
@@ -11088,7 +11140,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>437</v>
       </c>
@@ -11126,7 +11178,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>713</v>
       </c>
@@ -11164,7 +11216,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>841</v>
       </c>
@@ -11202,7 +11254,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>910</v>
       </c>
@@ -11240,7 +11292,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>890</v>
       </c>
@@ -11278,7 +11330,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>328</v>
       </c>
@@ -11316,7 +11368,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>229</v>
       </c>
@@ -11354,7 +11406,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>535</v>
       </c>
@@ -11392,7 +11444,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>569</v>
       </c>
@@ -11430,7 +11482,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>324</v>
       </c>
@@ -11468,7 +11520,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>902</v>
       </c>
@@ -11506,7 +11558,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>676</v>
       </c>
@@ -11544,7 +11596,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>640</v>
       </c>
@@ -11582,7 +11634,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>241</v>
       </c>
@@ -11620,7 +11672,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -11658,7 +11710,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>853</v>
       </c>
@@ -11696,7 +11748,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>612</v>
       </c>
@@ -11734,7 +11786,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>542</v>
       </c>
@@ -11772,7 +11824,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>525</v>
       </c>
@@ -11810,7 +11862,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>912</v>
       </c>
@@ -11848,7 +11900,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>758</v>
       </c>
@@ -11886,7 +11938,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>741</v>
       </c>
@@ -11924,7 +11976,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>443</v>
       </c>
@@ -11962,7 +12014,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>783</v>
       </c>
@@ -12000,7 +12052,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>888</v>
       </c>
@@ -12038,7 +12090,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>544</v>
       </c>
@@ -12076,7 +12128,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>148</v>
       </c>
@@ -12114,7 +12166,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -12152,7 +12204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>808</v>
       </c>
@@ -12190,7 +12242,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>668</v>
       </c>
@@ -12228,7 +12280,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>594</v>
       </c>
@@ -12266,7 +12318,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>649</v>
       </c>
@@ -12304,7 +12356,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>878</v>
       </c>
@@ -12342,7 +12394,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>357</v>
       </c>
@@ -12380,7 +12432,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>445</v>
       </c>
@@ -12418,7 +12470,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>717</v>
       </c>
@@ -12456,7 +12508,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>83</v>
       </c>
@@ -12494,7 +12546,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>655</v>
       </c>
@@ -12532,7 +12584,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>62</v>
       </c>
@@ -12570,7 +12622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>679</v>
       </c>
@@ -12608,7 +12660,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>804</v>
       </c>
@@ -12646,7 +12698,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>598</v>
       </c>
@@ -12684,7 +12736,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -12722,7 +12774,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>586</v>
       </c>
@@ -12760,7 +12812,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>282</v>
       </c>
@@ -12798,7 +12850,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>285</v>
       </c>
@@ -12836,7 +12888,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>636</v>
       </c>
@@ -12874,7 +12926,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>744</v>
       </c>
@@ -12912,7 +12964,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>751</v>
       </c>
@@ -12950,7 +13002,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>691</v>
       </c>
@@ -12988,7 +13040,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>796</v>
       </c>
@@ -13026,7 +13078,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>326</v>
       </c>
@@ -13064,7 +13116,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>767</v>
       </c>
@@ -13102,7 +13154,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>747</v>
       </c>
@@ -13140,7 +13192,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>377</v>
       </c>
@@ -13178,7 +13230,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>749</v>
       </c>
@@ -13216,7 +13268,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>753</v>
       </c>
@@ -13254,7 +13306,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>802</v>
       </c>
@@ -13292,7 +13344,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>86</v>
       </c>
@@ -13330,7 +13382,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>898</v>
       </c>
@@ -13368,7 +13420,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>256</v>
       </c>
@@ -13406,7 +13458,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>104</v>
       </c>
@@ -13444,7 +13496,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -13482,7 +13534,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>547</v>
       </c>
@@ -13520,7 +13572,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>372</v>
       </c>
@@ -13558,7 +13610,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>771</v>
       </c>
@@ -13596,7 +13648,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>122</v>
       </c>
@@ -13634,7 +13686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>603</v>
       </c>
@@ -13672,7 +13724,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>733</v>
       </c>
@@ -13710,7 +13762,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>247</v>
       </c>
@@ -13748,7 +13800,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>471</v>
       </c>
@@ -13786,7 +13838,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>355</v>
       </c>
@@ -13824,7 +13876,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>379</v>
       </c>
@@ -13862,7 +13914,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>468</v>
       </c>
@@ -13900,7 +13952,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>388</v>
       </c>
@@ -13938,7 +13990,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>892</v>
       </c>
@@ -13976,7 +14028,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>839</v>
       </c>
@@ -14014,7 +14066,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>868</v>
       </c>
@@ -14052,7 +14104,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>20</v>
       </c>
@@ -14090,7 +14142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>96</v>
       </c>
@@ -14128,7 +14180,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>896</v>
       </c>
@@ -14166,7 +14218,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>871</v>
       </c>
@@ -14204,7 +14256,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>685</v>
       </c>
@@ -14242,7 +14294,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>918</v>
       </c>
@@ -14280,7 +14332,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>401</v>
       </c>
@@ -14318,7 +14370,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>820</v>
       </c>
@@ -14356,7 +14408,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>435</v>
       </c>
@@ -14394,7 +14446,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>49</v>
       </c>
@@ -14432,7 +14484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>108</v>
       </c>
@@ -14470,7 +14522,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>394</v>
       </c>
@@ -14508,7 +14560,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>515</v>
       </c>
@@ -14546,7 +14598,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>562</v>
       </c>
@@ -14584,7 +14636,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>99</v>
       </c>
@@ -14622,7 +14674,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>253</v>
       </c>
@@ -14660,7 +14712,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>894</v>
       </c>
@@ -14698,7 +14750,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>236</v>
       </c>
@@ -14736,7 +14788,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>567</v>
       </c>
@@ -14774,7 +14826,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>299</v>
       </c>
@@ -14812,7 +14864,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>731</v>
       </c>
@@ -14850,7 +14902,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>728</v>
       </c>
@@ -14888,7 +14940,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>503</v>
       </c>
@@ -14926,7 +14978,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>291</v>
       </c>
@@ -14964,7 +15016,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>778</v>
       </c>
@@ -15002,7 +15054,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>781</v>
       </c>
@@ -15040,7 +15092,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>806</v>
       </c>
@@ -15078,7 +15130,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>480</v>
       </c>
@@ -15116,7 +15168,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>638</v>
       </c>
@@ -15154,7 +15206,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>674</v>
       </c>
@@ -15192,7 +15244,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>410</v>
       </c>
@@ -15230,7 +15282,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>125</v>
       </c>
@@ -15268,7 +15320,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>672</v>
       </c>
@@ -15306,7 +15358,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>53</v>
       </c>
@@ -15344,7 +15396,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>58</v>
       </c>
@@ -15382,7 +15434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>67</v>
       </c>
@@ -15420,7 +15472,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>398</v>
       </c>
@@ -15458,7 +15510,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>44</v>
       </c>
@@ -15496,7 +15548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>549</v>
       </c>
@@ -15534,7 +15586,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>776</v>
       </c>
@@ -15572,7 +15624,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>865</v>
       </c>
@@ -15610,7 +15662,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>670</v>
       </c>
@@ -15648,7 +15700,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>92</v>
       </c>
@@ -15686,7 +15738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>822</v>
       </c>
@@ -15724,7 +15776,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>817</v>
       </c>
@@ -15762,7 +15814,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -15800,7 +15852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>79</v>
       </c>
@@ -15838,7 +15890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>231</v>
       </c>
@@ -15876,7 +15928,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>269</v>
       </c>
@@ -15914,7 +15966,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>906</v>
       </c>
@@ -15952,7 +16004,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>826</v>
       </c>
@@ -15990,7 +16042,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>629</v>
       </c>
@@ -16028,7 +16080,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>592</v>
       </c>
@@ -16066,7 +16118,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>810</v>
       </c>
@@ -16104,7 +16156,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>433</v>
       </c>
@@ -16142,7 +16194,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>129</v>
       </c>
@@ -16180,7 +16232,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>793</v>
       </c>
@@ -16218,7 +16270,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>507</v>
       </c>
@@ -16256,7 +16308,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>258</v>
       </c>
@@ -16294,7 +16346,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>224</v>
       </c>
@@ -16332,7 +16384,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>496</v>
       </c>
@@ -16370,7 +16422,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>421</v>
       </c>
@@ -16408,7 +16460,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>322</v>
       </c>
@@ -16446,7 +16498,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>448</v>
       </c>
@@ -16484,7 +16536,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>381</v>
       </c>
@@ -16522,7 +16574,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>800</v>
       </c>
@@ -16560,7 +16612,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>824</v>
       </c>
@@ -16598,7 +16650,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>859</v>
       </c>
@@ -16636,7 +16688,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>618</v>
       </c>
@@ -16674,7 +16726,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>418</v>
       </c>
@@ -16712,7 +16764,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>473</v>
       </c>
@@ -16750,7 +16802,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>769</v>
       </c>
@@ -16788,7 +16840,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>904</v>
       </c>
@@ -16826,7 +16878,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>351</v>
       </c>
@@ -16864,7 +16916,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>135</v>
       </c>
@@ -16902,7 +16954,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>485</v>
       </c>
@@ -16940,7 +16992,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>540</v>
       </c>
@@ -16978,7 +17030,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>529</v>
       </c>
@@ -17016,7 +17068,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>607</v>
       </c>
@@ -17054,7 +17106,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>494</v>
       </c>
@@ -17092,7 +17144,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>319</v>
       </c>
@@ -17130,7 +17182,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>900</v>
       </c>
@@ -17168,7 +17220,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>922</v>
       </c>
@@ -17206,7 +17258,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>925</v>
       </c>
@@ -17244,7 +17296,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>927</v>
       </c>
@@ -17282,7 +17334,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>930</v>
       </c>
@@ -17320,7 +17372,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>932</v>
       </c>
@@ -17358,7 +17410,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>934</v>
       </c>
@@ -17396,7 +17448,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>936</v>
       </c>
@@ -17434,7 +17486,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>938</v>
       </c>
@@ -17472,7 +17524,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>940</v>
       </c>
@@ -17510,7 +17562,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>943</v>
       </c>
@@ -17548,7 +17600,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>945</v>
       </c>
@@ -17586,7 +17638,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>947</v>
       </c>
@@ -17624,7 +17676,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>949</v>
       </c>
@@ -17662,7 +17714,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>951</v>
       </c>
@@ -17700,7 +17752,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>953</v>
       </c>
@@ -17738,7 +17790,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>955</v>
       </c>
@@ -17776,7 +17828,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>957</v>
       </c>
@@ -17814,7 +17866,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>959</v>
       </c>
@@ -17852,7 +17904,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>961</v>
       </c>
@@ -17890,7 +17942,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>964</v>
       </c>
@@ -17928,7 +17980,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>966</v>
       </c>
@@ -17966,7 +18018,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>968</v>
       </c>
@@ -18004,7 +18056,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>970</v>
       </c>
@@ -18042,7 +18094,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>972</v>
       </c>
@@ -18080,7 +18132,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>974</v>
       </c>
@@ -18118,7 +18170,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>976</v>
       </c>
@@ -18156,7 +18208,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>978</v>
       </c>
@@ -18194,7 +18246,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>980</v>
       </c>
@@ -18232,7 +18284,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>982</v>
       </c>
@@ -18270,7 +18322,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>984</v>
       </c>
@@ -18308,7 +18360,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>986</v>
       </c>
@@ -18346,7 +18398,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>988</v>
       </c>
@@ -18384,7 +18436,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>991</v>
       </c>
@@ -18422,7 +18474,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>994</v>
       </c>
@@ -18460,7 +18512,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>997</v>
       </c>
@@ -18498,7 +18550,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>1000</v>
       </c>
@@ -18536,7 +18588,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>1003</v>
       </c>
@@ -18574,7 +18626,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>1005</v>
       </c>
@@ -18612,7 +18664,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>1008</v>
       </c>
@@ -18650,7 +18702,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>1010</v>
       </c>
@@ -18688,7 +18740,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>1012</v>
       </c>
@@ -18726,7 +18778,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>1014</v>
       </c>
@@ -18764,7 +18816,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>1016</v>
       </c>
@@ -18802,7 +18854,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>1018</v>
       </c>
@@ -18840,7 +18892,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>1020</v>
       </c>
@@ -18878,7 +18930,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>1018</v>
       </c>
@@ -18916,7 +18968,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>1020</v>
       </c>
@@ -18954,7 +19006,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>1022</v>
       </c>
@@ -18992,7 +19044,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>1024</v>
       </c>
@@ -19030,7 +19082,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>1026</v>
       </c>
@@ -19068,7 +19120,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>1028</v>
       </c>
@@ -19106,7 +19158,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>1030</v>
       </c>
@@ -19144,7 +19196,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>1032</v>
       </c>
@@ -19182,7 +19234,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>1034</v>
       </c>
@@ -19220,7 +19272,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>1036</v>
       </c>
@@ -19258,7 +19310,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>1038</v>
       </c>
@@ -19296,7 +19348,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>1040</v>
       </c>
@@ -19334,7 +19386,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>1042</v>
       </c>
@@ -19372,7 +19424,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>1044</v>
       </c>
@@ -19410,7 +19462,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>1047</v>
       </c>
@@ -19448,7 +19500,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>1049</v>
       </c>
@@ -19486,7 +19538,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>1051</v>
       </c>
@@ -19524,7 +19576,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>1053</v>
       </c>
@@ -19562,7 +19614,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>1055</v>
       </c>
@@ -19600,7 +19652,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>1057</v>
       </c>
@@ -19638,7 +19690,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>1060</v>
       </c>
@@ -19676,7 +19728,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>1062</v>
       </c>
@@ -19714,7 +19766,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>1064</v>
       </c>
@@ -19752,7 +19804,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>1066</v>
       </c>
@@ -19790,7 +19842,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>1068</v>
       </c>
@@ -19828,7 +19880,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>1070</v>
       </c>
@@ -19866,7 +19918,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>1072</v>
       </c>
@@ -19904,7 +19956,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>1075</v>
       </c>
@@ -19942,7 +19994,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
         <v>1077</v>
       </c>
@@ -19980,7 +20032,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
         <v>1080</v>
       </c>
@@ -20018,7 +20070,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
         <v>1082</v>
       </c>
@@ -20056,7 +20108,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
         <v>1084</v>
       </c>
@@ -20094,7 +20146,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
         <v>1086</v>
       </c>
@@ -20132,7 +20184,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
         <v>1088</v>
       </c>
@@ -20170,7 +20222,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
         <v>1090</v>
       </c>
@@ -20208,7 +20260,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
         <v>1092</v>
       </c>
@@ -20246,7 +20298,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
         <v>1095</v>
       </c>
@@ -20284,7 +20336,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
         <v>1097</v>
       </c>
@@ -20322,7 +20374,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
         <v>1099</v>
       </c>
@@ -20360,7 +20412,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
         <v>1101</v>
       </c>
@@ -20398,7 +20450,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
         <v>1103</v>
       </c>
@@ -20436,7 +20488,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
         <v>1105</v>
       </c>
@@ -20474,7 +20526,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
         <v>1107</v>
       </c>
@@ -20512,7 +20564,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
         <v>1109</v>
       </c>
@@ -20550,7 +20602,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
         <v>1111</v>
       </c>
@@ -20588,7 +20640,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
         <v>1113</v>
       </c>
@@ -20626,7 +20678,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
         <v>1115</v>
       </c>
@@ -20664,7 +20716,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
         <v>1117</v>
       </c>
@@ -20702,7 +20754,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A427" t="s">
         <v>1119</v>
       </c>
@@ -20740,7 +20792,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A428" t="s">
         <v>1121</v>
       </c>
@@ -20778,7 +20830,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A429" t="s">
         <v>1124</v>
       </c>
@@ -20816,7 +20868,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A430" t="s">
         <v>1126</v>
       </c>
@@ -20854,7 +20906,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A431" t="s">
         <v>1128</v>
       </c>
@@ -20892,7 +20944,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A432" t="s">
         <v>1131</v>
       </c>
@@ -20930,7 +20982,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A433" t="s">
         <v>1133</v>
       </c>
@@ -20968,7 +21020,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A434" t="s">
         <v>1136</v>
       </c>
@@ -21006,7 +21058,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A435" t="s">
         <v>1138</v>
       </c>
@@ -21044,7 +21096,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A436" t="s">
         <v>1140</v>
       </c>
@@ -21082,7 +21134,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A437" t="s">
         <v>1142</v>
       </c>
@@ -21120,7 +21172,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A438" t="s">
         <v>1144</v>
       </c>
@@ -21158,7 +21210,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A439" t="s">
         <v>1147</v>
       </c>
@@ -21196,7 +21248,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A440" t="s">
         <v>1149</v>
       </c>
@@ -21234,7 +21286,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A441" t="s">
         <v>1152</v>
       </c>
@@ -21272,7 +21324,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A442" t="s">
         <v>1154</v>
       </c>
@@ -21310,7 +21362,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A443" t="s">
         <v>1156</v>
       </c>
@@ -21348,7 +21400,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A444" t="s">
         <v>1158</v>
       </c>
@@ -21386,7 +21438,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A445" t="s">
         <v>1160</v>
       </c>
@@ -21424,7 +21476,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A446" t="s">
         <v>1162</v>
       </c>
@@ -21462,7 +21514,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A447" t="s">
         <v>1164</v>
       </c>
@@ -21500,7 +21552,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A448" t="s">
         <v>1166</v>
       </c>
@@ -21538,7 +21590,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A449" t="s">
         <v>1168</v>
       </c>
@@ -21576,7 +21628,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A450" t="s">
         <v>1170</v>
       </c>
@@ -21614,7 +21666,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A451" t="s">
         <v>1172</v>
       </c>
@@ -21652,7 +21704,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A452" t="s">
         <v>1174</v>
       </c>
@@ -21690,7 +21742,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A453" t="s">
         <v>1177</v>
       </c>
@@ -21728,7 +21780,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A454" t="s">
         <v>1179</v>
       </c>
@@ -21766,7 +21818,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A455" t="s">
         <v>1181</v>
       </c>
@@ -21804,7 +21856,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A456" t="s">
         <v>1183</v>
       </c>
@@ -21842,7 +21894,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A457" t="s">
         <v>1185</v>
       </c>
@@ -21880,7 +21932,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A458" t="s">
         <v>1187</v>
       </c>
@@ -21918,7 +21970,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A459" t="s">
         <v>1189</v>
       </c>
@@ -21956,7 +22008,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A460" t="s">
         <v>1191</v>
       </c>
@@ -21994,7 +22046,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A461" t="s">
         <v>1193</v>
       </c>
@@ -22032,7 +22084,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A462" t="s">
         <v>1195</v>
       </c>
@@ -22070,7 +22122,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A463" t="s">
         <v>1197</v>
       </c>
@@ -22108,7 +22160,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A464" t="s">
         <v>1199</v>
       </c>
@@ -22146,7 +22198,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A465" t="s">
         <v>1201</v>
       </c>
@@ -22184,7 +22236,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A466" t="s">
         <v>1203</v>
       </c>
@@ -22222,7 +22274,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A467" t="s">
         <v>1205</v>
       </c>
@@ -22260,7 +22312,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A468" t="s">
         <v>1207</v>
       </c>
@@ -22298,7 +22350,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A469" t="s">
         <v>1209</v>
       </c>
@@ -22336,7 +22388,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A470" t="s">
         <v>1212</v>
       </c>
@@ -22374,7 +22426,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A471" t="s">
         <v>1214</v>
       </c>
@@ -22412,7 +22464,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A472" t="s">
         <v>1217</v>
       </c>
@@ -22450,7 +22502,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A473" t="s">
         <v>1220</v>
       </c>
@@ -22488,7 +22540,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A474" t="s">
         <v>1222</v>
       </c>
@@ -22526,7 +22578,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A475" t="s">
         <v>1224</v>
       </c>
@@ -22564,7 +22616,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A476" t="s">
         <v>1226</v>
       </c>
@@ -22602,7 +22654,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A477" t="s">
         <v>1228</v>
       </c>
@@ -22640,7 +22692,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A478" t="s">
         <v>1230</v>
       </c>
@@ -22678,7 +22730,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A479" t="s">
         <v>1233</v>
       </c>
@@ -22716,7 +22768,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A480" t="s">
         <v>1235</v>
       </c>
@@ -22754,7 +22806,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A481" t="s">
         <v>1237</v>
       </c>
@@ -22792,7 +22844,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A482" t="s">
         <v>1239</v>
       </c>
@@ -22830,7 +22882,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A483" t="s">
         <v>1241</v>
       </c>
@@ -22868,7 +22920,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A484" t="s">
         <v>1243</v>
       </c>
@@ -22906,7 +22958,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A485" t="s">
         <v>1246</v>
       </c>
@@ -22944,7 +22996,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A486" t="s">
         <v>1249</v>
       </c>
@@ -22982,7 +23034,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A487" t="s">
         <v>1251</v>
       </c>
@@ -23020,7 +23072,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A488" t="s">
         <v>1253</v>
       </c>
@@ -23058,7 +23110,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A489" t="s">
         <v>1255</v>
       </c>
@@ -23096,7 +23148,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A490" t="s">
         <v>1258</v>
       </c>
@@ -23134,7 +23186,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A491" t="s">
         <v>1260</v>
       </c>
@@ -23172,7 +23224,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A492" t="s">
         <v>1262</v>
       </c>
@@ -23210,7 +23262,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A493" t="s">
         <v>1264</v>
       </c>
@@ -23248,7 +23300,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A494" t="s">
         <v>1266</v>
       </c>
@@ -23286,7 +23338,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A495" t="s">
         <v>1268</v>
       </c>
@@ -23324,7 +23376,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A496" t="s">
         <v>1270</v>
       </c>
@@ -23362,7 +23414,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A497" t="s">
         <v>1272</v>
       </c>
@@ -23400,7 +23452,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A498" t="s">
         <v>1274</v>
       </c>
@@ -23438,7 +23490,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A499" t="s">
         <v>1276</v>
       </c>
@@ -23476,7 +23528,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A500" t="s">
         <v>1279</v>
       </c>
@@ -23514,7 +23566,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A501" t="s">
         <v>1282</v>
       </c>
@@ -23552,7 +23604,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A502" t="s">
         <v>1284</v>
       </c>
@@ -23590,7 +23642,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A503" t="s">
         <v>1287</v>
       </c>
@@ -23628,7 +23680,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A504" t="s">
         <v>1289</v>
       </c>
@@ -23666,7 +23718,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A505" t="s">
         <v>1291</v>
       </c>
@@ -23704,7 +23756,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A506" t="s">
         <v>1293</v>
       </c>
@@ -23742,7 +23794,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A507" t="s">
         <v>1295</v>
       </c>
@@ -23780,7 +23832,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A508" t="s">
         <v>1297</v>
       </c>
@@ -23818,7 +23870,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A509" t="s">
         <v>1299</v>
       </c>
@@ -23856,7 +23908,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A510" t="s">
         <v>1301</v>
       </c>
@@ -23894,7 +23946,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A511" t="s">
         <v>1304</v>
       </c>
@@ -23932,7 +23984,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A512" t="s">
         <v>1306</v>
       </c>
@@ -23970,7 +24022,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A513" t="s">
         <v>1309</v>
       </c>
@@ -24008,7 +24060,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A514" t="s">
         <v>1311</v>
       </c>
@@ -24046,7 +24098,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A515" t="s">
         <v>1313</v>
       </c>
@@ -24084,7 +24136,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A516" t="s">
         <v>1315</v>
       </c>
@@ -24122,7 +24174,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A517" t="s">
         <v>1317</v>
       </c>
@@ -24160,7 +24212,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A518" t="s">
         <v>1319</v>
       </c>
@@ -24198,7 +24250,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A519" t="s">
         <v>1321</v>
       </c>
@@ -24236,7 +24288,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A520" t="s">
         <v>1323</v>
       </c>
@@ -24274,7 +24326,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A521" t="s">
         <v>1325</v>
       </c>
@@ -24312,7 +24364,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A522" t="s">
         <v>1327</v>
       </c>
@@ -24350,7 +24402,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A523" t="s">
         <v>1329</v>
       </c>
@@ -24388,7 +24440,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A524" t="s">
         <v>1331</v>
       </c>
@@ -24426,7 +24478,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A525" t="s">
         <v>1333</v>
       </c>
@@ -24464,7 +24516,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A526" t="s">
         <v>1335</v>
       </c>
@@ -24502,7 +24554,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A527" t="s">
         <v>1337</v>
       </c>
@@ -24540,7 +24592,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A528" t="s">
         <v>1339</v>
       </c>
@@ -24578,7 +24630,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A529" t="s">
         <v>1341</v>
       </c>
@@ -24616,7 +24668,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A530" t="s">
         <v>1343</v>
       </c>
@@ -24654,7 +24706,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A531" t="s">
         <v>1345</v>
       </c>
@@ -24692,7 +24744,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A532" t="s">
         <v>1347</v>
       </c>
@@ -24730,7 +24782,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A533" t="s">
         <v>1350</v>
       </c>
@@ -24768,7 +24820,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A534" t="s">
         <v>1352</v>
       </c>
@@ -24806,7 +24858,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A535" t="s">
         <v>1355</v>
       </c>
@@ -24844,7 +24896,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A536" t="s">
         <v>1357</v>
       </c>
@@ -24882,7 +24934,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A537" t="s">
         <v>1359</v>
       </c>
@@ -24920,7 +24972,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A538" t="s">
         <v>1361</v>
       </c>
@@ -24958,7 +25010,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A539" t="s">
         <v>1363</v>
       </c>
@@ -24996,7 +25048,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A540" t="s">
         <v>1365</v>
       </c>
@@ -25034,7 +25086,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
         <v>1367</v>
       </c>
@@ -25072,7 +25124,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A542" t="s">
         <v>1369</v>
       </c>
@@ -25110,7 +25162,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A543" t="s">
         <v>1371</v>
       </c>
@@ -25148,35 +25200,201 @@
         <v>1373</v>
       </c>
     </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A544" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C544" t="s">
+        <v>416</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E544">
+        <v>8.4</v>
+      </c>
+      <c r="F544">
+        <v>727448</v>
+      </c>
+      <c r="G544" t="s">
+        <v>51</v>
+      </c>
+      <c r="H544" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I544">
+        <v>1979</v>
+      </c>
+      <c r="J544" t="s">
+        <v>17</v>
+      </c>
+      <c r="K544" t="s">
+        <v>18</v>
+      </c>
+      <c r="L544" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A545" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C545" t="s">
+        <v>860</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E545">
+        <v>6.8</v>
+      </c>
+      <c r="F545">
+        <v>122182</v>
+      </c>
+      <c r="G545" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H545" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I545">
+        <v>2000</v>
+      </c>
+      <c r="J545" t="s">
+        <v>17</v>
+      </c>
+      <c r="K545" t="s">
+        <v>18</v>
+      </c>
+      <c r="L545" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A546" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C546" t="s">
+        <v>428</v>
+      </c>
+      <c r="D546" t="s">
+        <v>14</v>
+      </c>
+      <c r="E546">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F546">
+        <v>656553</v>
+      </c>
+      <c r="G546" t="s">
+        <v>51</v>
+      </c>
+      <c r="H546" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I546">
+        <v>2007</v>
+      </c>
+      <c r="J546" t="s">
+        <v>17</v>
+      </c>
+      <c r="K546" t="s">
+        <v>18</v>
+      </c>
+      <c r="L546" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A547" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C547" t="s">
+        <v>149</v>
+      </c>
+      <c r="D547" t="s">
+        <v>160</v>
+      </c>
+      <c r="E547">
+        <v>6.9</v>
+      </c>
+      <c r="F547">
+        <v>516455</v>
+      </c>
+      <c r="G547" t="s">
+        <v>51</v>
+      </c>
+      <c r="H547" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I547">
+        <v>1986</v>
+      </c>
+      <c r="J547" t="s">
+        <v>17</v>
+      </c>
+      <c r="K547" t="s">
+        <v>18</v>
+      </c>
+      <c r="L547" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A548" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C548" t="s">
+        <v>187</v>
+      </c>
+      <c r="D548" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E548">
+        <v>6.2</v>
+      </c>
+      <c r="F548">
+        <v>213210</v>
+      </c>
+      <c r="G548" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H548" t="s">
+        <v>1380</v>
+      </c>
+      <c r="I548">
+        <v>2014</v>
+      </c>
+      <c r="J548" t="s">
+        <v>17</v>
+      </c>
+      <c r="K548" t="s">
+        <v>18</v>
+      </c>
+      <c r="L548" t="s">
+        <v>1388</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:L472">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L472">
     <sortCondition ref="J2:J472"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>